--- a/BackLinks.xlsx
+++ b/BackLinks.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18326"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>davaotourpackages.com</t>
   </si>
@@ -40,12 +40,18 @@
   </si>
   <si>
     <t>http://www.philbuysell.com/</t>
+  </si>
+  <si>
+    <t>realbreezedavaotours.wordpress.com</t>
+  </si>
+  <si>
+    <t>jahdielsvillosa@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -98,6 +104,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -145,7 +154,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -178,9 +187,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -213,6 +239,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -389,56 +432,66 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:B9"/>
+  <dimension ref="B2:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.140625" customWidth="1"/>
     <col min="2" max="2" width="63.5703125" customWidth="1"/>
+    <col min="3" max="3" width="27.140625" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -450,9 +503,10 @@
     <hyperlink ref="B6" r:id="rId5" display="https://www.google.com/webmasters/tools/external-links-domain-to-page?hl=en&amp;authuser=2&amp;siteUrl=http://realbreezedavaotours.com/&amp;bldomain=global-free-classified-ads.com"/>
     <hyperlink ref="B7" r:id="rId6" display="https://www.google.com/webmasters/tools/external-links-domain-to-page?hl=en&amp;authuser=2&amp;siteUrl=http://realbreezedavaotours.com/&amp;bldomain=locanto.ph"/>
     <hyperlink ref="B8" r:id="rId7" display="https://www.google.com/webmasters/tools/external-links-domain-to-page?hl=en&amp;authuser=2&amp;siteUrl=http://realbreezedavaotours.com/&amp;bldomain=cebu.market"/>
+    <hyperlink ref="C10" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId8"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId9"/>
 </worksheet>
 </file>
 

--- a/BackLinks.xlsx
+++ b/BackLinks.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="16729"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>davaotourpackages.com</t>
   </si>
@@ -46,6 +46,15 @@
   </si>
   <si>
     <t>jahdielsvillosa@gmail.com</t>
+  </si>
+  <si>
+    <t>VisitDavaoPackages.blogspot.com</t>
+  </si>
+  <si>
+    <t>realbreezemark@gmail.com</t>
+  </si>
+  <si>
+    <t>realbreeze</t>
   </si>
 </sst>
 </file>
@@ -432,10 +441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C10"/>
+  <dimension ref="B2:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -446,52 +455,63 @@
     <col min="4" max="4" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -504,9 +524,10 @@
     <hyperlink ref="B7" r:id="rId6" display="https://www.google.com/webmasters/tools/external-links-domain-to-page?hl=en&amp;authuser=2&amp;siteUrl=http://realbreezedavaotours.com/&amp;bldomain=locanto.ph"/>
     <hyperlink ref="B8" r:id="rId7" display="https://www.google.com/webmasters/tools/external-links-domain-to-page?hl=en&amp;authuser=2&amp;siteUrl=http://realbreezedavaotours.com/&amp;bldomain=cebu.market"/>
     <hyperlink ref="C10" r:id="rId8"/>
+    <hyperlink ref="C11" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId9"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId10"/>
 </worksheet>
 </file>
 

--- a/BackLinks.xlsx
+++ b/BackLinks.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
   <si>
     <t>davaotourpackages.com</t>
   </si>
@@ -45,9 +45,6 @@
     <t>realbreezedavaotours.wordpress.com</t>
   </si>
   <si>
-    <t>jahdielsvillosa@gmail.com</t>
-  </si>
-  <si>
     <t>VisitDavaoPackages.blogspot.com</t>
   </si>
   <si>
@@ -55,6 +52,12 @@
   </si>
   <si>
     <t>realbreeze</t>
+  </si>
+  <si>
+    <t>surigaoparadisetravels.wordpress.com</t>
+  </si>
+  <si>
+    <t>camiguinparadisetravels.wordpress.com</t>
   </si>
 </sst>
 </file>
@@ -441,10 +444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D11"/>
+  <dimension ref="B2:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -500,18 +503,43 @@
         <v>8</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" t="s">
         <v>11</v>
       </c>
-      <c r="D11" t="s">
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
         <v>12</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -523,11 +551,13 @@
     <hyperlink ref="B6" r:id="rId5" display="https://www.google.com/webmasters/tools/external-links-domain-to-page?hl=en&amp;authuser=2&amp;siteUrl=http://realbreezedavaotours.com/&amp;bldomain=global-free-classified-ads.com"/>
     <hyperlink ref="B7" r:id="rId6" display="https://www.google.com/webmasters/tools/external-links-domain-to-page?hl=en&amp;authuser=2&amp;siteUrl=http://realbreezedavaotours.com/&amp;bldomain=locanto.ph"/>
     <hyperlink ref="B8" r:id="rId7" display="https://www.google.com/webmasters/tools/external-links-domain-to-page?hl=en&amp;authuser=2&amp;siteUrl=http://realbreezedavaotours.com/&amp;bldomain=cebu.market"/>
-    <hyperlink ref="C10" r:id="rId8"/>
-    <hyperlink ref="C11" r:id="rId9"/>
+    <hyperlink ref="C11" r:id="rId8"/>
+    <hyperlink ref="C12" r:id="rId9"/>
+    <hyperlink ref="C10" r:id="rId10"/>
+    <hyperlink ref="C13" r:id="rId11"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId10"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId12"/>
 </worksheet>
 </file>
 

--- a/BackLinks.xlsx
+++ b/BackLinks.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
   <si>
     <t>davaotourpackages.com</t>
   </si>
@@ -58,6 +58,12 @@
   </si>
   <si>
     <t>camiguinparadisetravels.wordpress.com</t>
+  </si>
+  <si>
+    <t>boholadventuretours.wordpress.com</t>
+  </si>
+  <si>
+    <t>https://camiguinparadisetravels.blogspot.com/</t>
   </si>
 </sst>
 </file>
@@ -444,10 +450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D13"/>
+  <dimension ref="B2:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -542,6 +548,28 @@
         <v>11</v>
       </c>
     </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="https://www.google.com/webmasters/tools/external-links-domain-to-page?hl=en&amp;authuser=2&amp;siteUrl=http://realbreezedavaotours.com/&amp;bldomain=davaotourpackages.com"/>
@@ -555,9 +583,11 @@
     <hyperlink ref="C12" r:id="rId9"/>
     <hyperlink ref="C10" r:id="rId10"/>
     <hyperlink ref="C13" r:id="rId11"/>
+    <hyperlink ref="C14" r:id="rId12"/>
+    <hyperlink ref="C15" r:id="rId13"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId12"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId14"/>
 </worksheet>
 </file>
 

--- a/BackLinks.xlsx
+++ b/BackLinks.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="18">
   <si>
     <t>davaotourpackages.com</t>
   </si>
@@ -64,6 +64,12 @@
   </si>
   <si>
     <t>https://camiguinparadisetravels.blogspot.com/</t>
+  </si>
+  <si>
+    <t>https://surigaoparadise.blogspot.com/</t>
+  </si>
+  <si>
+    <t>https://boholtraveladventures.blogspot.com/</t>
   </si>
 </sst>
 </file>
@@ -450,7 +456,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D15"/>
+  <dimension ref="B2:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
@@ -570,6 +576,28 @@
         <v>11</v>
       </c>
     </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="https://www.google.com/webmasters/tools/external-links-domain-to-page?hl=en&amp;authuser=2&amp;siteUrl=http://realbreezedavaotours.com/&amp;bldomain=davaotourpackages.com"/>
@@ -585,9 +613,12 @@
     <hyperlink ref="C13" r:id="rId11"/>
     <hyperlink ref="C14" r:id="rId12"/>
     <hyperlink ref="C15" r:id="rId13"/>
+    <hyperlink ref="C16" r:id="rId14"/>
+    <hyperlink ref="B17" r:id="rId15"/>
+    <hyperlink ref="C17" r:id="rId16"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId14"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId17"/>
 </worksheet>
 </file>
 

--- a/BackLinks.xlsx
+++ b/BackLinks.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="16729"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19226"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{7BE66771-9235-4A00-BBED-B4BDF1F0ED8F}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="24">
   <si>
     <t>davaotourpackages.com</t>
   </si>
@@ -70,13 +71,31 @@
   </si>
   <si>
     <t>https://boholtraveladventures.blogspot.com/</t>
+  </si>
+  <si>
+    <t>URL: http://davaoitsolutions.com/</t>
+  </si>
+  <si>
+    <t>Admin URL: http://davaoitsolutions.com/wp-admin</t>
+  </si>
+  <si>
+    <t>Username: abel</t>
+  </si>
+  <si>
+    <t>osqhLrW3ST4NjoF</t>
+  </si>
+  <si>
+    <t>Password: osqhLrW3ST4NjreaoF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">realvnc: </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -91,6 +110,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -114,9 +139,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -455,11 +489,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -587,7 +621,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>16</v>
       </c>
@@ -598,32 +632,79 @@
         <v>11</v>
       </c>
     </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
+      <c r="B20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="B21" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="4"/>
+      <c r="B22" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A19:A22"/>
+  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="https://www.google.com/webmasters/tools/external-links-domain-to-page?hl=en&amp;authuser=2&amp;siteUrl=http://realbreezedavaotours.com/&amp;bldomain=davaotourpackages.com"/>
-    <hyperlink ref="B3" r:id="rId2" display="https://www.google.com/webmasters/tools/external-links-domain-to-page?hl=en&amp;authuser=2&amp;siteUrl=http://realbreezedavaotours.com/&amp;bldomain=wordpress.com"/>
-    <hyperlink ref="B4" r:id="rId3" display="https://www.google.com/webmasters/tools/external-links-domain-to-page?hl=en&amp;authuser=2&amp;siteUrl=http://realbreezedavaotours.com/&amp;bldomain=blogspot.com"/>
-    <hyperlink ref="B5" r:id="rId4" display="https://www.google.com/webmasters/tools/external-links-domain-to-page?hl=en&amp;authuser=2&amp;siteUrl=http://realbreezedavaotours.com/&amp;bldomain=cebuclassifieds.com"/>
-    <hyperlink ref="B6" r:id="rId5" display="https://www.google.com/webmasters/tools/external-links-domain-to-page?hl=en&amp;authuser=2&amp;siteUrl=http://realbreezedavaotours.com/&amp;bldomain=global-free-classified-ads.com"/>
-    <hyperlink ref="B7" r:id="rId6" display="https://www.google.com/webmasters/tools/external-links-domain-to-page?hl=en&amp;authuser=2&amp;siteUrl=http://realbreezedavaotours.com/&amp;bldomain=locanto.ph"/>
-    <hyperlink ref="B8" r:id="rId7" display="https://www.google.com/webmasters/tools/external-links-domain-to-page?hl=en&amp;authuser=2&amp;siteUrl=http://realbreezedavaotours.com/&amp;bldomain=cebu.market"/>
-    <hyperlink ref="C11" r:id="rId8"/>
-    <hyperlink ref="C12" r:id="rId9"/>
-    <hyperlink ref="C10" r:id="rId10"/>
-    <hyperlink ref="C13" r:id="rId11"/>
-    <hyperlink ref="C14" r:id="rId12"/>
-    <hyperlink ref="C15" r:id="rId13"/>
-    <hyperlink ref="C16" r:id="rId14"/>
-    <hyperlink ref="B17" r:id="rId15"/>
-    <hyperlink ref="C17" r:id="rId16"/>
+    <hyperlink ref="B2" r:id="rId1" display="https://www.google.com/webmasters/tools/external-links-domain-to-page?hl=en&amp;authuser=2&amp;siteUrl=http://realbreezedavaotours.com/&amp;bldomain=davaotourpackages.com" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B3" r:id="rId2" display="https://www.google.com/webmasters/tools/external-links-domain-to-page?hl=en&amp;authuser=2&amp;siteUrl=http://realbreezedavaotours.com/&amp;bldomain=wordpress.com" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B4" r:id="rId3" display="https://www.google.com/webmasters/tools/external-links-domain-to-page?hl=en&amp;authuser=2&amp;siteUrl=http://realbreezedavaotours.com/&amp;bldomain=blogspot.com" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B5" r:id="rId4" display="https://www.google.com/webmasters/tools/external-links-domain-to-page?hl=en&amp;authuser=2&amp;siteUrl=http://realbreezedavaotours.com/&amp;bldomain=cebuclassifieds.com" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B6" r:id="rId5" display="https://www.google.com/webmasters/tools/external-links-domain-to-page?hl=en&amp;authuser=2&amp;siteUrl=http://realbreezedavaotours.com/&amp;bldomain=global-free-classified-ads.com" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="B7" r:id="rId6" display="https://www.google.com/webmasters/tools/external-links-domain-to-page?hl=en&amp;authuser=2&amp;siteUrl=http://realbreezedavaotours.com/&amp;bldomain=locanto.ph" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="B8" r:id="rId7" display="https://www.google.com/webmasters/tools/external-links-domain-to-page?hl=en&amp;authuser=2&amp;siteUrl=http://realbreezedavaotours.com/&amp;bldomain=cebu.market" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="C11" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="C12" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="C10" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="C13" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="C14" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="C15" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="C16" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="B17" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="C17" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="B19" r:id="rId17" display="https://mandrillapp.com/track/click/30104172/davaoitsolutions.com?p=eyJzIjoidHhtcDAyX0VDYkFYbjYzR2xGNzZONDlJdFFjIiwidiI6MSwicCI6IntcInVcIjozMDEwNDE3MixcInZcIjoxLFwidXJsXCI6XCJodHRwOlxcXC9cXFwvZGF2YW9pdHNvbHV0aW9ucy5jb21cXFwvXCIsXCJpZFwiOlwiNmNlY2I2OTUzZmYyNDg3MGE4MmM5ODgyN2EzN2QyOTRcIixcInVybF9pZHNcIjpbXCI3YjM1ZTM1YWZjZDI4YWY1N2FhNjkxMTVjNmJlMDcyMjkwZGE5Mzg5XCJdfSJ9" xr:uid="{BD9CAC15-28FB-4817-B8C5-765DB794140C}"/>
+    <hyperlink ref="B20" r:id="rId18" display="https://mandrillapp.com/track/click/30104172/davaoitsolutions.com?p=eyJzIjoiNzRZYlRycFpQcGR5WUVKNDBoUjRCLVlCOFBFIiwidiI6MSwicCI6IntcInVcIjozMDEwNDE3MixcInZcIjoxLFwidXJsXCI6XCJodHRwOlxcXC9cXFwvZGF2YW9pdHNvbHV0aW9ucy5jb21cXFwvd3AtYWRtaW5cIixcImlkXCI6XCI2Y2VjYjY5NTNmZjI0ODcwYTgyYzk4ODI3YTM3ZDI5NFwiLFwidXJsX2lkc1wiOltcIjE4ZTgzMWY5OTE1NGE5OGViMWM1ZmNhMmY0ZTkxMDdlMzUzZGM1ZDBcIl19In0" xr:uid="{528E334D-1FDC-4798-8DD6-C949A29F1278}"/>
+    <hyperlink ref="C23" r:id="rId19" xr:uid="{A1ABC7F2-DC6C-4AFE-93FD-B436961E0D97}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId17"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId20"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -635,7 +716,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/BackLinks.xlsx
+++ b/BackLinks.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19226"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{7BE66771-9235-4A00-BBED-B4BDF1F0ED8F}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{4A779F3F-93EC-4C75-9BB1-62CBF5D3123B}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="36">
   <si>
     <t>davaotourpackages.com</t>
   </si>
@@ -73,22 +73,58 @@
     <t>https://boholtraveladventures.blogspot.com/</t>
   </si>
   <si>
-    <t>URL: http://davaoitsolutions.com/</t>
-  </si>
-  <si>
     <t>Admin URL: http://davaoitsolutions.com/wp-admin</t>
   </si>
   <si>
     <t>Username: abel</t>
   </si>
   <si>
-    <t>osqhLrW3ST4NjoF</t>
-  </si>
-  <si>
     <t>Password: osqhLrW3ST4NjreaoF</t>
   </si>
   <si>
     <t xml:space="preserve">realvnc: </t>
+  </si>
+  <si>
+    <t>phonegap</t>
+  </si>
+  <si>
+    <t>52+Adjutant!</t>
+  </si>
+  <si>
+    <t>gmail accounts</t>
+  </si>
+  <si>
+    <t>davao it solutions</t>
+  </si>
+  <si>
+    <t>davaoitsolutions@gmail.com</t>
+  </si>
+  <si>
+    <t>davaoitsolutions123!</t>
+  </si>
+  <si>
+    <t>zeeit davao</t>
+  </si>
+  <si>
+    <t>zeeitdavao@gmail.com</t>
+  </si>
+  <si>
+    <t>zeeitdava0</t>
+  </si>
+  <si>
+    <t>wordpress account</t>
+  </si>
+  <si>
+    <t>davao1tsolution!</t>
+  </si>
+  <si>
+    <t>https://wordpress.com/</t>
+  </si>
+  <si>
+    <t>google analytics</t>
+  </si>
+  <si>
+    <t>davaoitsolutions</t>
   </si>
 </sst>
 </file>
@@ -490,10 +526,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:D23"/>
+  <dimension ref="A2:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -501,7 +537,7 @@
     <col min="1" max="1" width="7.140625" customWidth="1"/>
     <col min="2" max="2" width="63.5703125" customWidth="1"/>
     <col min="3" max="3" width="27.140625" customWidth="1"/>
-    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="4" max="4" width="36.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
@@ -634,44 +670,109 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
-      <c r="B19" s="3" t="s">
-        <v>18</v>
+      <c r="B19" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
-      <c r="B20" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" t="s">
-        <v>20</v>
+      <c r="B20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
-      <c r="B21" s="2" t="s">
-        <v>20</v>
+      <c r="B21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
-      <c r="B22" s="2" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D23" t="s">
-        <v>11</v>
-      </c>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B29" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B30" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D34" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C37" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -694,12 +795,10 @@
     <hyperlink ref="C16" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
     <hyperlink ref="B17" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
     <hyperlink ref="C17" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="B19" r:id="rId17" display="https://mandrillapp.com/track/click/30104172/davaoitsolutions.com?p=eyJzIjoidHhtcDAyX0VDYkFYbjYzR2xGNzZONDlJdFFjIiwidiI6MSwicCI6IntcInVcIjozMDEwNDE3MixcInZcIjoxLFwidXJsXCI6XCJodHRwOlxcXC9cXFwvZGF2YW9pdHNvbHV0aW9ucy5jb21cXFwvXCIsXCJpZFwiOlwiNmNlY2I2OTUzZmYyNDg3MGE4MmM5ODgyN2EzN2QyOTRcIixcInVybF9pZHNcIjpbXCI3YjM1ZTM1YWZjZDI4YWY1N2FhNjkxMTVjNmJlMDcyMjkwZGE5Mzg5XCJdfSJ9" xr:uid="{BD9CAC15-28FB-4817-B8C5-765DB794140C}"/>
-    <hyperlink ref="B20" r:id="rId18" display="https://mandrillapp.com/track/click/30104172/davaoitsolutions.com?p=eyJzIjoiNzRZYlRycFpQcGR5WUVKNDBoUjRCLVlCOFBFIiwidiI6MSwicCI6IntcInVcIjozMDEwNDE3MixcInZcIjoxLFwidXJsXCI6XCJodHRwOlxcXC9cXFwvZGF2YW9pdHNvbHV0aW9ucy5jb21cXFwvd3AtYWRtaW5cIixcImlkXCI6XCI2Y2VjYjY5NTNmZjI0ODcwYTgyYzk4ODI3YTM3ZDI5NFwiLFwidXJsX2lkc1wiOltcIjE4ZTgzMWY5OTE1NGE5OGViMWM1ZmNhMmY0ZTkxMDdlMzUzZGM1ZDBcIl19In0" xr:uid="{528E334D-1FDC-4798-8DD6-C949A29F1278}"/>
-    <hyperlink ref="C23" r:id="rId19" xr:uid="{A1ABC7F2-DC6C-4AFE-93FD-B436961E0D97}"/>
+    <hyperlink ref="C20" r:id="rId17" display="davaoitsolutions@gmail.com" xr:uid="{904FAA1E-F13E-4C80-89B8-0CE5DF61CDF9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId20"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId18"/>
 </worksheet>
 </file>
 

--- a/BackLinks.xlsx
+++ b/BackLinks.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{4A779F3F-93EC-4C75-9BB1-62CBF5D3123B}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25430CCA-8EA4-4F76-A02B-DCB1FFC20940}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -528,8 +528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
